--- a/src/main/resources/template/excel/export/PASheet.xlsx
+++ b/src/main/resources/template/excel/export/PASheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21330" windowHeight="6960"/>
+    <workbookView windowWidth="21330" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="N13")</t>
+          <t>jx:area(lastCell="N12")</t>
         </r>
       </text>
     </comment>
@@ -51,33 +51,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>采购订单</t>
   </si>
   <si>
+    <t>下单日期：</t>
+  </si>
+  <si>
+    <t>${createTime}</t>
+  </si>
+  <si>
+    <t>下单编号：</t>
+  </si>
+  <si>
+    <t>${formNo}</t>
+  </si>
+  <si>
+    <t>采购方：</t>
+  </si>
+  <si>
+    <t>${branchName}</t>
+  </si>
+  <si>
     <t>供应商：</t>
   </si>
   <si>
     <t>${supplierName}</t>
   </si>
   <si>
-    <t>下单日期：</t>
-  </si>
-  <si>
-    <t>${createTime}</t>
-  </si>
-  <si>
-    <t>机构名称：</t>
-  </si>
-  <si>
-    <t>${branchName}</t>
-  </si>
-  <si>
-    <t>下单编号：</t>
-  </si>
-  <si>
-    <t>${formNo}</t>
+    <t>联系人：</t>
+  </si>
+  <si>
+    <t>${branchContacts}</t>
+  </si>
+  <si>
+    <t>${supplierContcat}</t>
+  </si>
+  <si>
+    <t>联系电话：</t>
+  </si>
+  <si>
+    <t>${branchMobile}</t>
+  </si>
+  <si>
+    <t>${supplierMobile}</t>
+  </si>
+  <si>
+    <t>收货地址：</t>
+  </si>
+  <si>
+    <t>${branchAddress}</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>${remark}</t>
   </si>
   <si>
     <t>行号</t>
@@ -180,7 +210,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,10 +228,72 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,6 +312,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -228,6 +334,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -237,41 +365,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -287,67 +387,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -358,18 +403,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,7 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,37 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,13 +517,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,91 +571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,16 +612,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -593,6 +638,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,9 +668,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,35 +703,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,175 +729,196 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1198,10 +1264,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1213,227 +1279,317 @@
     <col min="8" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:14">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:14">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" customHeight="1" spans="1:14">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="9"/>
     </row>
-    <row r="4" customFormat="1" ht="10" customHeight="1"/>
+    <row r="4" customFormat="1" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
     <row r="5" customFormat="1" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" customFormat="1" ht="10" customHeight="1"/>
+    <row r="6" customFormat="1" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="B8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" customFormat="1" ht="10" customHeight="1"/>
-    <row r="10" customFormat="1" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="L10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="6"/>
+    <row r="9" customFormat="1" spans="1:14">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="6"/>
     </row>
-    <row r="11" customFormat="1" ht="10" customHeight="1"/>
-    <row r="12" customFormat="1" spans="1:14">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+    <row r="10" customFormat="1" ht="10" customHeight="1" spans="1:14">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:14">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="31">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:N4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="E1:I2"/>
   </mergeCells>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.297916666666667" footer="0.297916666666667"/>
   <pageSetup paperSize="128" orientation="portrait" horizontalDpi="600"/>

--- a/src/main/resources/template/excel/export/PASheet.xlsx
+++ b/src/main/resources/template/excel/export/PASheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="O12")</t>
@@ -40,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="O8")</t>
@@ -201,11 +203,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.unit</t>
+    <t>${obj.purchaseSpec}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.purchaseSpec}</t>
+    <t>${obj.unit}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -226,6 +228,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -234,6 +237,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -241,6 +245,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -249,17 +254,20 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -344,22 +352,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,7 +677,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -678,7 +686,7 @@
     <col min="2" max="2" width="7.625" customWidth="1"/>
     <col min="3" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="7.875" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="15" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -687,35 +695,35 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="13"/>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="13" t="s">
         <v>3</v>
       </c>
@@ -874,20 +882,20 @@
       <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>34</v>
@@ -956,19 +964,19 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="12"/>
       <c r="J11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="11" t="s">
         <v>47</v>
       </c>
@@ -977,21 +985,14 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E1:J2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="K4:L4"/>
@@ -1000,14 +1001,21 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.297916666666667" footer="0.297916666666667"/>

--- a/src/main/resources/template/excel/export/PASheet.xlsx
+++ b/src/main/resources/template/excel/export/PASheet.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="8340"/>
   </bookViews>
@@ -12,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N13"/>
 </workbook>
 </file>
 
@@ -31,7 +35,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="O12")</t>
+          <t>jx:area(lastCell="P12")</t>
         </r>
       </text>
     </comment>
@@ -44,7 +48,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="O8")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="P8")</t>
         </r>
       </text>
     </comment>
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>采购订单</t>
   </si>
@@ -208,6 +212,14 @@
   </si>
   <si>
     <t>${obj.unit}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.remark}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,25 +361,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,169 +702,170 @@
     <col min="3" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="7" width="7.625" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="15" width="7.125" customWidth="1"/>
+    <col min="9" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="13" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="13" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="11"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="11"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="15" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="13" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="7" t="s">
         <v>23</v>
       </c>
@@ -874,23 +890,26 @@
       <c r="O7" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="P7" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="10" t="s">
         <v>50</v>
       </c>
@@ -915,18 +934,21 @@
       <c r="O8" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="P8" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="3"/>
       <c r="H9" s="5"/>
       <c r="I9" s="11"/>
@@ -936,12 +958,12 @@
       <c r="M9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -958,33 +980,56 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="12"/>
       <c r="J11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="K2:L2"/>
@@ -993,34 +1038,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E1:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.297916666666667" footer="0.297916666666667"/>
-  <pageSetup paperSize="128" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="128" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/template/excel/export/PASheet.xlsx
+++ b/src/main/resources/template/excel/export/PASheet.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zhangchm\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$11</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -23,16 +26,17 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>zhangq</author>
+    <author>YSCGD</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="P12")</t>
@@ -43,9 +47,10 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="P8")</t>
@@ -57,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>采购订单</t>
   </si>
@@ -65,162 +70,179 @@
     <t>下单日期：</t>
   </si>
   <si>
+    <t>下单编号：</t>
+  </si>
+  <si>
+    <t>采购方：</t>
+  </si>
+  <si>
+    <t>供应商：</t>
+  </si>
+  <si>
+    <t>联系人：</t>
+  </si>
+  <si>
+    <t>联系电话：</t>
+  </si>
+  <si>
+    <t>收货地址：</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>行号</t>
+  </si>
+  <si>
+    <t>货号</t>
+  </si>
+  <si>
+    <t>条码</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>箱数</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>进价</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>赠品</t>
+  </si>
+  <si>
+    <t>人民币大写总金额：</t>
+  </si>
+  <si>
+    <t>总金额：</t>
+  </si>
+  <si>
+    <t>厂家回签：</t>
+  </si>
+  <si>
+    <t>核准：</t>
+  </si>
+  <si>
+    <t>审核：</t>
+  </si>
+  <si>
+    <t>采购：</t>
+  </si>
+  <si>
+    <t>订货规格</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.rowNo}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuCode}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.barCode}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.unit}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.purchaseSpec}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.largeNum}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.realNum}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.price}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.amount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.isGiftName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>${createTime}</t>
-  </si>
-  <si>
-    <t>下单编号：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${formNo}</t>
-  </si>
-  <si>
-    <t>采购方：</t>
-  </si>
-  <si>
-    <t>${branchName}</t>
-  </si>
-  <si>
-    <t>供应商：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${supplierName}</t>
-  </si>
-  <si>
-    <t>联系人：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${supplierContcat}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${supplierMobile}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${branchContacts}</t>
-  </si>
-  <si>
-    <t>${supplierContcat}</t>
-  </si>
-  <si>
-    <t>联系电话：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${branchMobile}</t>
-  </si>
-  <si>
-    <t>${supplierMobile}</t>
-  </si>
-  <si>
-    <t>收货地址：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${branchAddress}</t>
-  </si>
-  <si>
-    <t>备注：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${remark}</t>
-  </si>
-  <si>
-    <t>行号</t>
-  </si>
-  <si>
-    <t>货号</t>
-  </si>
-  <si>
-    <t>条码</t>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>箱数</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>进价</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>赠品</t>
-  </si>
-  <si>
-    <t>${obj.rowNo}</t>
-  </si>
-  <si>
-    <t>${obj.skuCode}</t>
-  </si>
-  <si>
-    <t>${obj.barCode}</t>
-  </si>
-  <si>
-    <t>${obj.skuName}</t>
-  </si>
-  <si>
-    <t>${obj.spec}</t>
-  </si>
-  <si>
-    <t>${obj.largeNum}</t>
-  </si>
-  <si>
-    <t>${obj.realNum}</t>
-  </si>
-  <si>
-    <t>${obj.price}</t>
-  </si>
-  <si>
-    <t>${obj.amount}</t>
-  </si>
-  <si>
-    <t>${obj.isGiftName}</t>
-  </si>
-  <si>
-    <t>人民币大写总金额：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${amountCN}</t>
-  </si>
-  <si>
-    <t>总金额：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${amount}</t>
-  </si>
-  <si>
-    <t>厂家回签：</t>
-  </si>
-  <si>
-    <t>核准：</t>
-  </si>
-  <si>
-    <t>审核：</t>
-  </si>
-  <si>
-    <t>采购：</t>
-  </si>
-  <si>
-    <t>订货规格</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.purchaseSpec}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.unit}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.remark}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -275,13 +297,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,26 +387,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,18 +721,19 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="14" width="7.125" customWidth="1"/>
-    <col min="15" max="15" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="7.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="7.625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="15" width="7.125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -711,52 +741,52 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="14" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="14"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="18"/>
       <c r="M2" s="16" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="14"/>
+    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18"/>
       <c r="C3" s="16" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="4"/>
@@ -765,23 +795,23 @@
       <c r="H3" s="5"/>
       <c r="I3" s="11"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="6"/>
+      <c r="K3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18"/>
       <c r="C4" s="16" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="6"/>
@@ -790,23 +820,23 @@
       <c r="H4" s="5"/>
       <c r="I4" s="11"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="14"/>
+      <c r="K4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="18"/>
       <c r="M4" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="14"/>
+    <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -815,32 +845,32 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="14"/>
+      <c r="K5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="18"/>
       <c r="M5" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="14"/>
+    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -850,71 +880,71 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="P7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="C8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
+      <c r="I8" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>34</v>
@@ -934,18 +964,16 @@
       <c r="O8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -956,10 +984,10 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="12" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O9" s="16"/>
     </row>
@@ -980,68 +1008,69 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="12"/>
       <c r="J11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="11" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E1:J2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.297916666666667" footer="0.297916666666667"/>
-  <pageSetup paperSize="128" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="13" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1054,7 +1083,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1068,7 +1097,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/src/main/resources/template/excel/export/PASheet.xlsx
+++ b/src/main/resources/template/excel/export/PASheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zhangchm\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>采购订单</t>
   </si>
@@ -193,55 +193,59 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>${branchName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${createTime}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${formNo}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${supplierName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${supplierContcat}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${supplierMobile}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchContacts}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchMobile}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchAddress}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${remark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${amountCN}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${amount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.remark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.isGiftName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${branchName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${createTime}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${formNo}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${supplierName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${supplierContcat}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${supplierMobile}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${branchContacts}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${branchMobile}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${branchAddress}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${remark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${amountCN}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${amount}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,32 +391,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,7 +722,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -741,144 +742,144 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="18" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="18" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="15"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="11"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="11"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="18" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="H6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
@@ -887,15 +888,15 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
@@ -931,15 +932,15 @@
       <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="10" t="s">
         <v>32</v>
       </c>
@@ -962,21 +963,23 @@
         <v>38</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="3"/>
       <c r="H9" s="5"/>
       <c r="I9" s="11"/>
@@ -986,10 +989,10 @@
       <c r="M9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="16"/>
+      <c r="N9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
@@ -1009,40 +1012,42 @@
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="12"/>
       <c r="J11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="E7:G7"/>
@@ -1057,16 +1062,14 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/main/resources/template/excel/export/PASheet.xlsx
+++ b/src/main/resources/template/excel/export/PASheet.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -252,7 +252,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,12 +394,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,11 +418,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +728,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,144 +748,144 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="14" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="14" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="11"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="19" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="11"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15" t="s">
+      <c r="L4" s="17"/>
+      <c r="M4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="14" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
@@ -888,15 +894,15 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
@@ -932,15 +938,15 @@
       <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="10" t="s">
         <v>32</v>
       </c>
@@ -956,7 +962,7 @@
       <c r="L8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="22" t="s">
         <v>37</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -970,16 +976,16 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="3"/>
       <c r="H9" s="5"/>
       <c r="I9" s="11"/>
@@ -989,10 +995,10 @@
       <c r="M9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
@@ -1012,42 +1018,40 @@
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="12"/>
       <c r="J11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="E7:G7"/>
@@ -1062,14 +1066,16 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
